--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -24,9 +24,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>activo</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -75,9 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,18 +375,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -399,7 +400,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -413,7 +414,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -424,8 +425,12 @@
       <c r="D4">
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>